--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Fn1-Itgb7.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Fn1-Itgb7.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>55.5590947699235</v>
+        <v>61.84465033333333</v>
       </c>
       <c r="H2">
-        <v>55.5590947699235</v>
+        <v>185.533951</v>
       </c>
       <c r="I2">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="J2">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.56847630736466</v>
+        <v>1.570106666666667</v>
       </c>
       <c r="N2">
-        <v>1.56847630736466</v>
+        <v>4.71032</v>
       </c>
       <c r="O2">
-        <v>0.0593343830680252</v>
+        <v>0.04895814174088396</v>
       </c>
       <c r="P2">
-        <v>0.0593343830680252</v>
+        <v>0.04895814174088397</v>
       </c>
       <c r="Q2">
-        <v>87.1431238052528</v>
+        <v>97.10269778603556</v>
       </c>
       <c r="R2">
-        <v>87.1431238052528</v>
+        <v>873.9242800743201</v>
       </c>
       <c r="S2">
-        <v>0.001814865525477023</v>
+        <v>0.001543740394443126</v>
       </c>
       <c r="T2">
-        <v>0.001814865525477023</v>
+        <v>0.001543740394443126</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>55.5590947699235</v>
+        <v>61.84465033333333</v>
       </c>
       <c r="H3">
-        <v>55.5590947699235</v>
+        <v>185.533951</v>
       </c>
       <c r="I3">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="J3">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.14223345242988</v>
+        <v>2.170845333333333</v>
       </c>
       <c r="N3">
-        <v>2.14223345242988</v>
+        <v>6.512536</v>
       </c>
       <c r="O3">
-        <v>0.08103922239104686</v>
+        <v>0.06769002118340356</v>
       </c>
       <c r="P3">
-        <v>0.08103922239104686</v>
+        <v>0.06769002118340357</v>
       </c>
       <c r="Q3">
-        <v>119.0205514028521</v>
+        <v>134.2551705677485</v>
       </c>
       <c r="R3">
-        <v>119.0205514028521</v>
+        <v>1208.296535109736</v>
       </c>
       <c r="S3">
-        <v>0.002478753183636525</v>
+        <v>0.0021343910590926</v>
       </c>
       <c r="T3">
-        <v>0.002478753183636525</v>
+        <v>0.0021343910590926</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>55.5590947699235</v>
+        <v>61.84465033333333</v>
       </c>
       <c r="H4">
-        <v>55.5590947699235</v>
+        <v>185.533951</v>
       </c>
       <c r="I4">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="J4">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.7059388317497</v>
+        <v>12.02192266666667</v>
       </c>
       <c r="N4">
-        <v>11.7059388317497</v>
+        <v>36.06576800000001</v>
       </c>
       <c r="O4">
-        <v>0.4428276382324892</v>
+        <v>0.3748605151535007</v>
       </c>
       <c r="P4">
-        <v>0.4428276382324892</v>
+        <v>0.3748605151535007</v>
       </c>
       <c r="Q4">
-        <v>650.3713649241091</v>
+        <v>743.4916036543743</v>
       </c>
       <c r="R4">
-        <v>650.3713649241091</v>
+        <v>6691.424432889369</v>
       </c>
       <c r="S4">
-        <v>0.01354480442537285</v>
+        <v>0.01182004256997705</v>
       </c>
       <c r="T4">
-        <v>0.01354480442537285</v>
+        <v>0.01182004256997704</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>55.5590947699235</v>
+        <v>61.84465033333333</v>
       </c>
       <c r="H5">
-        <v>55.5590947699235</v>
+        <v>185.533951</v>
       </c>
       <c r="I5">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="J5">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.59597280353</v>
+        <v>15.862603</v>
       </c>
       <c r="N5">
-        <v>10.59597280353</v>
+        <v>47.587809</v>
       </c>
       <c r="O5">
-        <v>0.4008383845844452</v>
+        <v>0.4946183482566181</v>
       </c>
       <c r="P5">
-        <v>0.4008383845844452</v>
+        <v>0.4946183482566182</v>
       </c>
       <c r="Q5">
-        <v>588.7026571708552</v>
+        <v>981.0171359114844</v>
       </c>
       <c r="R5">
-        <v>588.7026571708552</v>
+        <v>8829.154223203359</v>
       </c>
       <c r="S5">
-        <v>0.01226047576219321</v>
+        <v>0.01559622765254678</v>
       </c>
       <c r="T5">
-        <v>0.01226047576219321</v>
+        <v>0.01559622765254678</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>55.5590947699235</v>
+        <v>61.84465033333333</v>
       </c>
       <c r="H6">
-        <v>55.5590947699235</v>
+        <v>185.533951</v>
       </c>
       <c r="I6">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="J6">
-        <v>0.03058708006445994</v>
+        <v>0.03153184209101587</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.421904865465889</v>
+        <v>0.4449116666666666</v>
       </c>
       <c r="N6">
-        <v>0.421904865465889</v>
+        <v>1.334735</v>
       </c>
       <c r="O6">
-        <v>0.01596037172399353</v>
+        <v>0.01387297366559358</v>
       </c>
       <c r="P6">
-        <v>0.01596037172399353</v>
+        <v>0.01387297366559358</v>
       </c>
       <c r="Q6">
-        <v>23.44065240431115</v>
+        <v>27.51540645422055</v>
       </c>
       <c r="R6">
-        <v>23.44065240431115</v>
+        <v>247.638658087985</v>
       </c>
       <c r="S6">
-        <v>0.0004881811677803326</v>
+        <v>0.0004374404149563184</v>
       </c>
       <c r="T6">
-        <v>0.0004881811677803326</v>
+        <v>0.0004374404149563184</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1361.3754564882</v>
+        <v>1361.379069</v>
       </c>
       <c r="H7">
-        <v>1361.3754564882</v>
+        <v>4084.137207</v>
       </c>
       <c r="I7">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101231</v>
       </c>
       <c r="J7">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101232</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.56847630736466</v>
+        <v>1.570106666666667</v>
       </c>
       <c r="N7">
-        <v>1.56847630736466</v>
+        <v>4.71032</v>
       </c>
       <c r="O7">
-        <v>0.0593343830680252</v>
+        <v>0.04895814174088396</v>
       </c>
       <c r="P7">
-        <v>0.0593343830680252</v>
+        <v>0.04895814174088397</v>
       </c>
       <c r="Q7">
-        <v>2135.28514892949</v>
+        <v>2137.51035209736</v>
       </c>
       <c r="R7">
-        <v>2135.28514892949</v>
+        <v>19237.59316887624</v>
       </c>
       <c r="S7">
-        <v>0.04447000789776153</v>
+        <v>0.03398217711050645</v>
       </c>
       <c r="T7">
-        <v>0.04447000789776153</v>
+        <v>0.03398217711050646</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1361.3754564882</v>
+        <v>1361.379069</v>
       </c>
       <c r="H8">
-        <v>1361.3754564882</v>
+        <v>4084.137207</v>
       </c>
       <c r="I8">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101231</v>
       </c>
       <c r="J8">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101232</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.14223345242988</v>
+        <v>2.170845333333333</v>
       </c>
       <c r="N8">
-        <v>2.14223345242988</v>
+        <v>6.512536</v>
       </c>
       <c r="O8">
-        <v>0.08103922239104686</v>
+        <v>0.06769002118340356</v>
       </c>
       <c r="P8">
-        <v>0.08103922239104686</v>
+        <v>0.06769002118340357</v>
       </c>
       <c r="Q8">
-        <v>2916.38404420602</v>
+        <v>2955.343398836328</v>
       </c>
       <c r="R8">
-        <v>2916.38404420602</v>
+        <v>26598.09058952695</v>
       </c>
       <c r="S8">
-        <v>0.06073737811728209</v>
+        <v>0.04698410124801483</v>
       </c>
       <c r="T8">
-        <v>0.06073737811728209</v>
+        <v>0.04698410124801485</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1361.3754564882</v>
+        <v>1361.379069</v>
       </c>
       <c r="H9">
-        <v>1361.3754564882</v>
+        <v>4084.137207</v>
       </c>
       <c r="I9">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101231</v>
       </c>
       <c r="J9">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101232</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>11.7059388317497</v>
+        <v>12.02192266666667</v>
       </c>
       <c r="N9">
-        <v>11.7059388317497</v>
+        <v>36.06576800000001</v>
       </c>
       <c r="O9">
-        <v>0.4428276382324892</v>
+        <v>0.3748605151535007</v>
       </c>
       <c r="P9">
-        <v>0.4428276382324892</v>
+        <v>0.3748605151535007</v>
       </c>
       <c r="Q9">
-        <v>15936.17782069619</v>
+        <v>16366.39388753666</v>
       </c>
       <c r="R9">
-        <v>15936.17782069619</v>
+        <v>147297.54498783</v>
       </c>
       <c r="S9">
-        <v>0.3318910141354116</v>
+        <v>0.2601932174040057</v>
       </c>
       <c r="T9">
-        <v>0.3318910141354116</v>
+        <v>0.2601932174040057</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1361.3754564882</v>
+        <v>1361.379069</v>
       </c>
       <c r="H10">
-        <v>1361.3754564882</v>
+        <v>4084.137207</v>
       </c>
       <c r="I10">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101231</v>
       </c>
       <c r="J10">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101232</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.59597280353</v>
+        <v>15.862603</v>
       </c>
       <c r="N10">
-        <v>10.59597280353</v>
+        <v>47.587809</v>
       </c>
       <c r="O10">
-        <v>0.4008383845844452</v>
+        <v>0.4946183482566181</v>
       </c>
       <c r="P10">
-        <v>0.4008383845844452</v>
+        <v>0.4946183482566182</v>
       </c>
       <c r="Q10">
-        <v>14425.0973123422</v>
+        <v>21595.0157040566</v>
       </c>
       <c r="R10">
-        <v>14425.0973123422</v>
+        <v>194355.1413365095</v>
       </c>
       <c r="S10">
-        <v>0.3004208556067746</v>
+        <v>0.3433179388531889</v>
       </c>
       <c r="T10">
-        <v>0.3004208556067746</v>
+        <v>0.3433179388531891</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1361.3754564882</v>
+        <v>1361.379069</v>
       </c>
       <c r="H11">
-        <v>1361.3754564882</v>
+        <v>4084.137207</v>
       </c>
       <c r="I11">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101231</v>
       </c>
       <c r="J11">
-        <v>0.7494812551902312</v>
+        <v>0.6941067594101232</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.421904865465889</v>
+        <v>0.4449116666666666</v>
       </c>
       <c r="N11">
-        <v>0.421904865465889</v>
+        <v>1.334735</v>
       </c>
       <c r="O11">
-        <v>0.01596037172399353</v>
+        <v>0.01387297366559358</v>
       </c>
       <c r="P11">
-        <v>0.01596037172399353</v>
+        <v>0.01387297366559358</v>
       </c>
       <c r="Q11">
-        <v>574.3709288182172</v>
+        <v>605.6934305539049</v>
       </c>
       <c r="R11">
-        <v>574.3709288182172</v>
+        <v>5451.240874985145</v>
       </c>
       <c r="S11">
-        <v>0.01196199943300134</v>
+        <v>0.009629324794407137</v>
       </c>
       <c r="T11">
-        <v>0.01196199943300134</v>
+        <v>0.009629324794407141</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>241.126779126896</v>
+        <v>251.007014</v>
       </c>
       <c r="H12">
-        <v>241.126779126896</v>
+        <v>753.021042</v>
       </c>
       <c r="I12">
-        <v>0.1327480969476183</v>
+        <v>0.127977334927537</v>
       </c>
       <c r="J12">
-        <v>0.1327480969476183</v>
+        <v>0.1279773349275369</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.56847630736466</v>
+        <v>1.570106666666667</v>
       </c>
       <c r="N12">
-        <v>1.56847630736466</v>
+        <v>4.71032</v>
       </c>
       <c r="O12">
-        <v>0.0593343830680252</v>
+        <v>0.04895814174088396</v>
       </c>
       <c r="P12">
-        <v>0.0593343830680252</v>
+        <v>0.04895814174088397</v>
       </c>
       <c r="Q12">
-        <v>378.2016401316878</v>
+        <v>394.1077860614934</v>
       </c>
       <c r="R12">
-        <v>378.2016401316878</v>
+        <v>3546.97007455344</v>
       </c>
       <c r="S12">
-        <v>0.00787652643584133</v>
+        <v>0.006265532503002934</v>
       </c>
       <c r="T12">
-        <v>0.00787652643584133</v>
+        <v>0.006265532503002933</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>241.126779126896</v>
+        <v>251.007014</v>
       </c>
       <c r="H13">
-        <v>241.126779126896</v>
+        <v>753.021042</v>
       </c>
       <c r="I13">
-        <v>0.1327480969476183</v>
+        <v>0.127977334927537</v>
       </c>
       <c r="J13">
-        <v>0.1327480969476183</v>
+        <v>0.1279773349275369</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.14223345242988</v>
+        <v>2.170845333333333</v>
       </c>
       <c r="N13">
-        <v>2.14223345242988</v>
+        <v>6.512536</v>
       </c>
       <c r="O13">
-        <v>0.08103922239104686</v>
+        <v>0.06769002118340356</v>
       </c>
       <c r="P13">
-        <v>0.08103922239104686</v>
+        <v>0.06769002118340357</v>
       </c>
       <c r="Q13">
-        <v>516.5498525223074</v>
+        <v>544.8974049758347</v>
       </c>
       <c r="R13">
-        <v>516.5498525223074</v>
+        <v>4904.076644782512</v>
       </c>
       <c r="S13">
-        <v>0.01075780255052628</v>
+        <v>0.00866278851224051</v>
       </c>
       <c r="T13">
-        <v>0.01075780255052628</v>
+        <v>0.00866278851224051</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>241.126779126896</v>
+        <v>251.007014</v>
       </c>
       <c r="H14">
-        <v>241.126779126896</v>
+        <v>753.021042</v>
       </c>
       <c r="I14">
-        <v>0.1327480969476183</v>
+        <v>0.127977334927537</v>
       </c>
       <c r="J14">
-        <v>0.1327480969476183</v>
+        <v>0.1279773349275369</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>11.7059388317497</v>
+        <v>12.02192266666667</v>
       </c>
       <c r="N14">
-        <v>11.7059388317497</v>
+        <v>36.06576800000001</v>
       </c>
       <c r="O14">
-        <v>0.4428276382324892</v>
+        <v>0.3748605151535007</v>
       </c>
       <c r="P14">
-        <v>0.4428276382324892</v>
+        <v>0.3748605151535007</v>
       </c>
       <c r="Q14">
-        <v>2822.615327156265</v>
+        <v>3017.586911098918</v>
       </c>
       <c r="R14">
-        <v>2822.615327156265</v>
+        <v>27158.28219989026</v>
       </c>
       <c r="S14">
-        <v>0.0587845262511713</v>
+        <v>0.0479736496989086</v>
       </c>
       <c r="T14">
-        <v>0.0587845262511713</v>
+        <v>0.0479736496989086</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>241.126779126896</v>
+        <v>251.007014</v>
       </c>
       <c r="H15">
-        <v>241.126779126896</v>
+        <v>753.021042</v>
       </c>
       <c r="I15">
-        <v>0.1327480969476183</v>
+        <v>0.127977334927537</v>
       </c>
       <c r="J15">
-        <v>0.1327480969476183</v>
+        <v>0.1279773349275369</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>10.59597280353</v>
+        <v>15.862603</v>
       </c>
       <c r="N15">
-        <v>10.59597280353</v>
+        <v>47.587809</v>
       </c>
       <c r="O15">
-        <v>0.4008383845844452</v>
+        <v>0.4946183482566181</v>
       </c>
       <c r="P15">
-        <v>0.4008383845844452</v>
+        <v>0.4946183482566182</v>
       </c>
       <c r="Q15">
-        <v>2554.972793831375</v>
+        <v>3981.624613297442</v>
       </c>
       <c r="R15">
-        <v>2554.972793831375</v>
+        <v>35834.62151967698</v>
       </c>
       <c r="S15">
-        <v>0.05321053273714262</v>
+        <v>0.06329993801614234</v>
       </c>
       <c r="T15">
-        <v>0.05321053273714262</v>
+        <v>0.06329993801614234</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>241.126779126896</v>
+        <v>251.007014</v>
       </c>
       <c r="H16">
-        <v>241.126779126896</v>
+        <v>753.021042</v>
       </c>
       <c r="I16">
-        <v>0.1327480969476183</v>
+        <v>0.127977334927537</v>
       </c>
       <c r="J16">
-        <v>0.1327480969476183</v>
+        <v>0.1279773349275369</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.421904865465889</v>
+        <v>0.4449116666666666</v>
       </c>
       <c r="N16">
-        <v>0.421904865465889</v>
+        <v>1.334735</v>
       </c>
       <c r="O16">
-        <v>0.01596037172399353</v>
+        <v>0.01387297366559358</v>
       </c>
       <c r="P16">
-        <v>0.01596037172399353</v>
+        <v>0.01387297366559358</v>
       </c>
       <c r="Q16">
-        <v>101.7325613077562</v>
+        <v>111.6759489437633</v>
       </c>
       <c r="R16">
-        <v>101.7325613077562</v>
+        <v>1005.08354049387</v>
       </c>
       <c r="S16">
-        <v>0.002118708972936718</v>
+        <v>0.00177542619724257</v>
       </c>
       <c r="T16">
-        <v>0.002118708972936718</v>
+        <v>0.00177542619724257</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>133.49876153682</v>
+        <v>260.0315303333334</v>
       </c>
       <c r="H17">
-        <v>133.49876153682</v>
+        <v>780.094591</v>
       </c>
       <c r="I17">
-        <v>0.07349538945050349</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="J17">
-        <v>0.07349538945050349</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.56847630736466</v>
+        <v>1.570106666666667</v>
       </c>
       <c r="N17">
-        <v>1.56847630736466</v>
+        <v>4.71032</v>
       </c>
       <c r="O17">
-        <v>0.0593343830680252</v>
+        <v>0.04895814174088396</v>
       </c>
       <c r="P17">
-        <v>0.0593343830680252</v>
+        <v>0.04895814174088397</v>
       </c>
       <c r="Q17">
-        <v>209.3896445330267</v>
+        <v>408.2772393199023</v>
       </c>
       <c r="R17">
-        <v>209.3896445330267</v>
+        <v>3674.495153879121</v>
       </c>
       <c r="S17">
-        <v>0.004360803591389872</v>
+        <v>0.006490798719708659</v>
       </c>
       <c r="T17">
-        <v>0.004360803591389872</v>
+        <v>0.00649079871970866</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>133.49876153682</v>
+        <v>260.0315303333334</v>
       </c>
       <c r="H18">
-        <v>133.49876153682</v>
+        <v>780.094591</v>
       </c>
       <c r="I18">
-        <v>0.07349538945050349</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="J18">
-        <v>0.07349538945050349</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.14223345242988</v>
+        <v>2.170845333333333</v>
       </c>
       <c r="N18">
-        <v>2.14223345242988</v>
+        <v>6.512536</v>
       </c>
       <c r="O18">
-        <v>0.08103922239104686</v>
+        <v>0.06769002118340356</v>
       </c>
       <c r="P18">
-        <v>0.08103922239104686</v>
+        <v>0.06769002118340357</v>
       </c>
       <c r="Q18">
-        <v>285.9855128221352</v>
+        <v>564.4882341436419</v>
       </c>
       <c r="R18">
-        <v>285.9855128221352</v>
+        <v>5080.394107292776</v>
       </c>
       <c r="S18">
-        <v>0.005956009210395951</v>
+        <v>0.008974243858348593</v>
       </c>
       <c r="T18">
-        <v>0.005956009210395951</v>
+        <v>0.008974243858348595</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>133.49876153682</v>
+        <v>260.0315303333334</v>
       </c>
       <c r="H19">
-        <v>133.49876153682</v>
+        <v>780.094591</v>
       </c>
       <c r="I19">
-        <v>0.07349538945050349</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="J19">
-        <v>0.07349538945050349</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>11.7059388317497</v>
+        <v>12.02192266666667</v>
       </c>
       <c r="N19">
-        <v>11.7059388317497</v>
+        <v>36.06576800000001</v>
       </c>
       <c r="O19">
-        <v>0.4428276382324892</v>
+        <v>0.3748605151535007</v>
       </c>
       <c r="P19">
-        <v>0.4428276382324892</v>
+        <v>0.3748605151535007</v>
       </c>
       <c r="Q19">
-        <v>1562.728336664355</v>
+        <v>3126.078948562322</v>
       </c>
       <c r="R19">
-        <v>1562.728336664355</v>
+        <v>28134.7105370609</v>
       </c>
       <c r="S19">
-        <v>0.03254578973134346</v>
+        <v>0.04969845801552963</v>
       </c>
       <c r="T19">
-        <v>0.03254578973134346</v>
+        <v>0.04969845801552964</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>133.49876153682</v>
+        <v>260.0315303333334</v>
       </c>
       <c r="H20">
-        <v>133.49876153682</v>
+        <v>780.094591</v>
       </c>
       <c r="I20">
-        <v>0.07349538945050349</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="J20">
-        <v>0.07349538945050349</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>10.59597280353</v>
+        <v>15.862603</v>
       </c>
       <c r="N20">
-        <v>10.59597280353</v>
+        <v>47.587809</v>
       </c>
       <c r="O20">
-        <v>0.4008383845844452</v>
+        <v>0.4946183482566181</v>
       </c>
       <c r="P20">
-        <v>0.4008383845844452</v>
+        <v>0.4946183482566182</v>
       </c>
       <c r="Q20">
-        <v>1414.549246549082</v>
+        <v>4124.776933160125</v>
       </c>
       <c r="R20">
-        <v>1414.549246549082</v>
+        <v>37122.99239844112</v>
       </c>
       <c r="S20">
-        <v>0.02945977318174449</v>
+        <v>0.06557577611095217</v>
       </c>
       <c r="T20">
-        <v>0.02945977318174449</v>
+        <v>0.06557577611095218</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>133.49876153682</v>
+        <v>260.0315303333334</v>
       </c>
       <c r="H21">
-        <v>133.49876153682</v>
+        <v>780.094591</v>
       </c>
       <c r="I21">
-        <v>0.07349538945050349</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="J21">
-        <v>0.07349538945050349</v>
+        <v>0.1325785352324417</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.421904865465889</v>
+        <v>0.4449116666666666</v>
       </c>
       <c r="N21">
-        <v>0.421904865465889</v>
+        <v>1.334735</v>
       </c>
       <c r="O21">
-        <v>0.01596037172399353</v>
+        <v>0.01387297366559358</v>
       </c>
       <c r="P21">
-        <v>0.01596037172399353</v>
+        <v>0.01387297366559358</v>
       </c>
       <c r="Q21">
-        <v>56.32377702605485</v>
+        <v>115.6910615464872</v>
       </c>
       <c r="R21">
-        <v>56.32377702605485</v>
+        <v>1041.219553918385</v>
       </c>
       <c r="S21">
-        <v>0.001173013735629708</v>
+        <v>0.001839258527902634</v>
       </c>
       <c r="T21">
-        <v>0.001173013735629708</v>
+        <v>0.001839258527902635</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>24.8635304977225</v>
+        <v>27.07732933333333</v>
       </c>
       <c r="H22">
-        <v>24.8635304977225</v>
+        <v>81.231988</v>
       </c>
       <c r="I22">
-        <v>0.01368817834718704</v>
+        <v>0.01380552833888228</v>
       </c>
       <c r="J22">
-        <v>0.01368817834718704</v>
+        <v>0.01380552833888228</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.56847630736466</v>
+        <v>1.570106666666667</v>
       </c>
       <c r="N22">
-        <v>1.56847630736466</v>
+        <v>4.71032</v>
       </c>
       <c r="O22">
-        <v>0.0593343830680252</v>
+        <v>0.04895814174088396</v>
       </c>
       <c r="P22">
-        <v>0.0593343830680252</v>
+        <v>0.04895814174088397</v>
       </c>
       <c r="Q22">
-        <v>38.99785850311639</v>
+        <v>42.51429530179556</v>
       </c>
       <c r="R22">
-        <v>38.99785850311639</v>
+        <v>382.62865771616</v>
       </c>
       <c r="S22">
-        <v>0.000812179617555444</v>
+        <v>0.000675893013222789</v>
       </c>
       <c r="T22">
-        <v>0.000812179617555444</v>
+        <v>0.0006758930132227891</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>24.8635304977225</v>
+        <v>27.07732933333333</v>
       </c>
       <c r="H23">
-        <v>24.8635304977225</v>
+        <v>81.231988</v>
       </c>
       <c r="I23">
-        <v>0.01368817834718704</v>
+        <v>0.01380552833888228</v>
       </c>
       <c r="J23">
-        <v>0.01368817834718704</v>
+        <v>0.01380552833888228</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2.14223345242988</v>
+        <v>2.170845333333333</v>
       </c>
       <c r="N23">
-        <v>2.14223345242988</v>
+        <v>6.512536</v>
       </c>
       <c r="O23">
-        <v>0.08103922239104686</v>
+        <v>0.06769002118340356</v>
       </c>
       <c r="P23">
-        <v>0.08103922239104686</v>
+        <v>0.06769002118340357</v>
       </c>
       <c r="Q23">
-        <v>53.26348677773168</v>
+        <v>58.78069402239645</v>
       </c>
       <c r="R23">
-        <v>53.26348677773168</v>
+        <v>529.026246201568</v>
       </c>
       <c r="S23">
-        <v>0.001109279329206003</v>
+        <v>0.0009344965057070196</v>
       </c>
       <c r="T23">
-        <v>0.001109279329206003</v>
+        <v>0.0009344965057070198</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>24.8635304977225</v>
+        <v>27.07732933333333</v>
       </c>
       <c r="H24">
-        <v>24.8635304977225</v>
+        <v>81.231988</v>
       </c>
       <c r="I24">
-        <v>0.01368817834718704</v>
+        <v>0.01380552833888228</v>
       </c>
       <c r="J24">
-        <v>0.01368817834718704</v>
+        <v>0.01380552833888228</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>11.7059388317497</v>
+        <v>12.02192266666667</v>
       </c>
       <c r="N24">
-        <v>11.7059388317497</v>
+        <v>36.06576800000001</v>
       </c>
       <c r="O24">
-        <v>0.4428276382324892</v>
+        <v>0.3748605151535007</v>
       </c>
       <c r="P24">
-        <v>0.4428276382324892</v>
+        <v>0.3748605151535007</v>
       </c>
       <c r="Q24">
-        <v>291.0509671476827</v>
+        <v>325.5215592651983</v>
       </c>
       <c r="R24">
-        <v>291.0509671476827</v>
+        <v>2929.694033386785</v>
       </c>
       <c r="S24">
-        <v>0.006061503689189934</v>
+        <v>0.005175147465079664</v>
       </c>
       <c r="T24">
-        <v>0.006061503689189934</v>
+        <v>0.005175147465079664</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>24.8635304977225</v>
+        <v>27.07732933333333</v>
       </c>
       <c r="H25">
-        <v>24.8635304977225</v>
+        <v>81.231988</v>
       </c>
       <c r="I25">
-        <v>0.01368817834718704</v>
+        <v>0.01380552833888228</v>
       </c>
       <c r="J25">
-        <v>0.01368817834718704</v>
+        <v>0.01380552833888228</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>10.59597280353</v>
+        <v>15.862603</v>
       </c>
       <c r="N25">
-        <v>10.59597280353</v>
+        <v>47.587809</v>
       </c>
       <c r="O25">
-        <v>0.4008383845844452</v>
+        <v>0.4946183482566181</v>
       </c>
       <c r="P25">
-        <v>0.4008383845844452</v>
+        <v>0.4946183482566182</v>
       </c>
       <c r="Q25">
-        <v>263.4532929536063</v>
+        <v>429.5169255149214</v>
       </c>
       <c r="R25">
-        <v>263.4532929536063</v>
+        <v>3865.652329634292</v>
       </c>
       <c r="S25">
-        <v>0.005486747296590234</v>
+        <v>0.006828467623787885</v>
       </c>
       <c r="T25">
-        <v>0.005486747296590234</v>
+        <v>0.006828467623787887</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>24.8635304977225</v>
+        <v>27.07732933333333</v>
       </c>
       <c r="H26">
-        <v>24.8635304977225</v>
+        <v>81.231988</v>
       </c>
       <c r="I26">
-        <v>0.01368817834718704</v>
+        <v>0.01380552833888228</v>
       </c>
       <c r="J26">
-        <v>0.01368817834718704</v>
+        <v>0.01380552833888228</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.421904865465889</v>
+        <v>0.4449116666666666</v>
       </c>
       <c r="N26">
-        <v>0.421904865465889</v>
+        <v>1.334735</v>
       </c>
       <c r="O26">
-        <v>0.01596037172399353</v>
+        <v>0.01387297366559358</v>
       </c>
       <c r="P26">
-        <v>0.01596037172399353</v>
+        <v>0.01387297366559358</v>
       </c>
       <c r="Q26">
-        <v>10.49004448964864</v>
+        <v>12.04701972257556</v>
       </c>
       <c r="R26">
-        <v>10.49004448964864</v>
+        <v>108.42317750318</v>
       </c>
       <c r="S26">
-        <v>0.0002184684146454245</v>
+        <v>0.0001915237310849197</v>
       </c>
       <c r="T26">
-        <v>0.0002184684146454245</v>
+        <v>0.0001915237310849198</v>
       </c>
     </row>
   </sheetData>
